--- a/workbooks/cdie2address.xlsx
+++ b/workbooks/cdie2address.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricku\PycharmProjects\EDMPrototyping\workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\EDMPrototyping\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C078B2D-F320-41F5-8FEF-D223450C1E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E50529-915A-48C5-8583-B11938FB5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$J$415</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Municípios x Região'!$A$1:$B$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4158,9 +4159,6 @@
     <t>Aparecida</t>
   </si>
   <si>
-    <t>Vale do Paraíba</t>
-  </si>
-  <si>
     <t>Guararema</t>
   </si>
   <si>
@@ -4486,6 +4484,9 @@
   </si>
   <si>
     <t>CEP</t>
+  </si>
+  <si>
+    <t>Vale</t>
   </si>
 </sst>
 </file>
@@ -4576,7 +4577,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4868,9 +4871,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4898,28 +4904,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1478</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1479</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1342</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>747</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4000736165</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>1089</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>677</v>
@@ -4982,10 +4988,10 @@
       </c>
       <c r="J3" s="4" t="str">
         <f>VLOOKUP(H3,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4000836000</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>1217</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>684</v>
@@ -5018,7 +5024,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4000106051</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>1126</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>649</v>
@@ -5051,7 +5057,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4000562906</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4000110932</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>1313</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>650</v>
@@ -5117,7 +5123,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4000298770</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4000782086</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4000136827</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>1070</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>573</v>
@@ -5216,7 +5222,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>679153</v>
       </c>
@@ -5239,7 +5245,7 @@
         <v>1070</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>573</v>
@@ -5272,14 +5278,14 @@
         <v>1136</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>652</v>
       </c>
       <c r="J12" s="4" t="str">
         <f>VLOOKUP(H12,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,17 +5311,17 @@
         <v>1137</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>433</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>VLOOKUP(H13,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4001080475</v>
       </c>
@@ -5371,17 +5377,17 @@
         <v>1137</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>433</v>
       </c>
       <c r="J15" s="4" t="str">
         <f>VLOOKUP(H15,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>359239</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>1075</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>373</v>
@@ -5437,14 +5443,14 @@
         <v>1274</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>554</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>VLOOKUP(H17,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,17 +5476,17 @@
         <v>1274</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>632</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>VLOOKUP(H18,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4000316385</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>490625</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>1083</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>484</v>
@@ -5546,7 +5552,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>719219</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4001908493</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4000826488</v>
       </c>
@@ -5645,7 +5651,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4000302330</v>
       </c>
@@ -5678,7 +5684,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4000290654</v>
       </c>
@@ -5701,7 +5707,7 @@
         <v>1083</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>484</v>
@@ -5711,7 +5717,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>490033</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>1083</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>485</v>
@@ -5744,7 +5750,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4001071772</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>522293</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>1083</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>485</v>
@@ -5810,7 +5816,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>478604</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>489759</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>1083</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>484</v>
@@ -5876,7 +5882,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4000604499</v>
       </c>
@@ -5909,7 +5915,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>655240</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>1083</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>485</v>
@@ -5942,7 +5948,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>4000173891</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>1083</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>485</v>
@@ -5975,7 +5981,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>489762</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>1083</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>484</v>
@@ -6008,7 +6014,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>4001092627</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>1077</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>689</v>
@@ -6041,7 +6047,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4001015560</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>370907</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>1065</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>387</v>
@@ -6107,7 +6113,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>705379</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>1066</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>581</v>
@@ -6140,7 +6146,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>518097</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>1090</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>513</v>
@@ -6173,7 +6179,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>953138</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>4001015605</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>502232</v>
       </c>
@@ -6302,10 +6308,10 @@
       </c>
       <c r="J43" s="4" t="str">
         <f>VLOOKUP(H43,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>405120</v>
       </c>
@@ -6328,7 +6334,7 @@
         <v>1074</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>411</v>
@@ -6338,7 +6344,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>367675</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>1065</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>385</v>
@@ -6371,7 +6377,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>73552</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>1097</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>365</v>
@@ -6404,7 +6410,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>709920</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>372890</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>1066</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>390</v>
@@ -6470,7 +6476,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>459086</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>1099</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>436</v>
@@ -6503,7 +6509,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>445722</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>1065</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>385</v>
@@ -6536,7 +6542,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>463349</v>
       </c>
@@ -6569,7 +6575,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>815596</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4000555833</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>493143</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>1104</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>493</v>
@@ -6668,7 +6674,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>709915</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>605296</v>
       </c>
@@ -6734,7 +6740,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>691969</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>1066</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>581</v>
@@ -6767,7 +6773,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>4000821459</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>409194</v>
       </c>
@@ -6863,7 +6869,7 @@
       </c>
       <c r="J60" s="4" t="str">
         <f>VLOOKUP(H60,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,7 +6902,7 @@
       </c>
       <c r="J61" s="4" t="str">
         <f>VLOOKUP(H61,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6922,17 +6928,17 @@
         <v>1071</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>671</v>
       </c>
       <c r="J62" s="4" t="str">
         <f>VLOOKUP(H62,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>623187</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>707644</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>511540</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>1113</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>506</v>
@@ -7054,17 +7060,17 @@
         <v>1161</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>424</v>
       </c>
       <c r="J66" s="4" t="str">
         <f>VLOOKUP(H66,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>483098</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>541782</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>1115</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>526</v>
@@ -7153,14 +7159,14 @@
         <v>1071</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>671</v>
       </c>
       <c r="J69" s="4" t="str">
         <f>VLOOKUP(H69,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7186,17 +7192,17 @@
         <v>1161</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>505</v>
       </c>
       <c r="J70" s="4" t="str">
         <f>VLOOKUP(H70,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>481390</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>1117</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>472</v>
@@ -7229,7 +7235,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>707652</v>
       </c>
@@ -7285,17 +7291,17 @@
         <v>1296</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>425</v>
       </c>
       <c r="J73" s="4" t="str">
         <f>VLOOKUP(H73,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>366897</v>
       </c>
@@ -7351,14 +7357,14 @@
         <v>1296</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>425</v>
       </c>
       <c r="J75" s="4" t="str">
         <f>VLOOKUP(H75,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7391,10 +7397,10 @@
       </c>
       <c r="J76" s="4" t="str">
         <f>VLOOKUP(H76,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>604234</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>492191</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>377431</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>1123</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>394</v>
@@ -7493,7 +7499,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>635690</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4001118682</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4000927878</v>
       </c>
@@ -7582,7 +7588,7 @@
         <v>1246</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>686</v>
@@ -7592,7 +7598,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>967216</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>1144</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>644</v>
@@ -7625,7 +7631,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>563757</v>
       </c>
@@ -7648,7 +7654,7 @@
         <v>1128</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>430</v>
@@ -7688,10 +7694,10 @@
       </c>
       <c r="J85" s="4" t="str">
         <f>VLOOKUP(H85,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>541312</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>489225</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>442364</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>1128</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>430</v>
@@ -7790,7 +7796,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>435748</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>589409</v>
       </c>
@@ -7846,7 +7852,7 @@
         <v>1301</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>538</v>
@@ -7856,7 +7862,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>815457</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>405579</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>464489</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>485913</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>1299</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>480</v>
@@ -7988,7 +7994,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>520749</v>
       </c>
@@ -8021,7 +8027,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4000820066</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>1072</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>680</v>
@@ -8054,7 +8060,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4000820065</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>1072</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>680</v>
@@ -8087,7 +8093,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>679741</v>
       </c>
@@ -8143,14 +8149,14 @@
         <v>1087</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>640</v>
       </c>
       <c r="J99" s="4" t="str">
         <f>VLOOKUP(H99,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8176,14 +8182,14 @@
         <v>1088</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>651</v>
       </c>
       <c r="J100" s="4" t="str">
         <f>VLOOKUP(H100,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8209,14 +8215,14 @@
         <v>1088</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>651</v>
       </c>
       <c r="J101" s="4" t="str">
         <f>VLOOKUP(H101,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8242,17 +8248,17 @@
         <v>1169</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>419</v>
       </c>
       <c r="J102" s="4" t="str">
         <f>VLOOKUP(H102,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>352279</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>1140</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>372</v>
@@ -8285,7 +8291,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>719221</v>
       </c>
@@ -8348,7 +8354,7 @@
       </c>
       <c r="J105" s="4" t="str">
         <f>VLOOKUP(H105,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8374,14 +8380,14 @@
         <v>1196</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>405</v>
       </c>
       <c r="J106" s="4" t="str">
         <f>VLOOKUP(H106,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,17 +8413,17 @@
         <v>1210</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>427</v>
       </c>
       <c r="J107" s="4" t="str">
         <f>VLOOKUP(H107,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>4000545020</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>1143</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>669</v>
@@ -8473,14 +8479,14 @@
         <v>1210</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>427</v>
       </c>
       <c r="J109" s="4" t="str">
         <f>VLOOKUP(H109,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8506,14 +8512,14 @@
         <v>1265</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>605</v>
       </c>
       <c r="J110" s="4" t="str">
         <f>VLOOKUP(H110,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8539,14 +8545,14 @@
         <v>1281</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>479</v>
       </c>
       <c r="J111" s="4" t="str">
         <f>VLOOKUP(H111,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8572,17 +8578,17 @@
         <v>1298</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>418</v>
       </c>
       <c r="J112" s="4" t="str">
         <f>VLOOKUP(H112,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>788573</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>547340</v>
       </c>
@@ -8671,14 +8677,14 @@
         <v>1087</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>640</v>
       </c>
       <c r="J115" s="4" t="str">
         <f>VLOOKUP(H115,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,14 +8710,14 @@
         <v>1169</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>419</v>
       </c>
       <c r="J116" s="4" t="str">
         <f>VLOOKUP(H116,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,17 +8743,17 @@
         <v>1169</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>419</v>
       </c>
       <c r="J117" s="4" t="str">
         <f>VLOOKUP(H117,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>920077</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>653068</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>508416</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>10423</v>
       </c>
@@ -8869,7 +8875,7 @@
         <v>1150</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>362</v>
@@ -8879,7 +8885,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>479466</v>
       </c>
@@ -8902,7 +8908,7 @@
         <v>1151</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>466</v>
@@ -8912,7 +8918,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>478994</v>
       </c>
@@ -8945,7 +8951,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>516189</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>1090</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>509</v>
@@ -9001,14 +9007,14 @@
         <v>1265</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>402</v>
       </c>
       <c r="J125" s="4" t="str">
         <f>VLOOKUP(H125,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9034,17 +9040,17 @@
         <v>1169</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>419</v>
       </c>
       <c r="J126" s="4" t="str">
         <f>VLOOKUP(H126,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>478606</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>4000170152</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>464083</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>4000754643</v>
       </c>
@@ -9176,7 +9182,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>477907</v>
       </c>
@@ -9199,7 +9205,7 @@
         <v>1166</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>463</v>
@@ -9209,7 +9215,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>507204</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>1166</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>463</v>
@@ -9242,7 +9248,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>183234</v>
       </c>
@@ -9265,7 +9271,7 @@
         <v>1140</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>367</v>
@@ -9275,7 +9281,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>671628</v>
       </c>
@@ -9298,7 +9304,7 @@
         <v>1166</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>463</v>
@@ -9308,7 +9314,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>665440</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>1095</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>570</v>
@@ -9341,7 +9347,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>483981</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>596709</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>360228</v>
       </c>
@@ -9430,7 +9436,7 @@
         <v>1160</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>376</v>
@@ -9440,7 +9446,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>740748</v>
       </c>
@@ -9463,7 +9469,7 @@
         <v>1096</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>607</v>
@@ -9473,7 +9479,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>640286</v>
       </c>
@@ -9496,7 +9502,7 @@
         <v>1162</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>562</v>
@@ -9506,7 +9512,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>712989</v>
       </c>
@@ -9539,7 +9545,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>4000906676</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>1164</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>685</v>
@@ -9572,7 +9578,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>464484</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>1098</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>446</v>
@@ -9605,7 +9611,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>405032</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>498454</v>
       </c>
@@ -9661,7 +9667,7 @@
         <v>1191</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>496</v>
@@ -9671,7 +9677,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>464486</v>
       </c>
@@ -9694,7 +9700,7 @@
         <v>1213</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>447</v>
@@ -9704,7 +9710,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>405025</v>
       </c>
@@ -9737,7 +9743,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>467449</v>
       </c>
@@ -9770,7 +9776,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>737563</v>
       </c>
@@ -9803,7 +9809,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>384966</v>
       </c>
@@ -9826,7 +9832,7 @@
         <v>1150</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>399</v>
@@ -9836,7 +9842,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>719220</v>
       </c>
@@ -9869,7 +9875,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>494797</v>
       </c>
@@ -9892,7 +9898,7 @@
         <v>1222</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>494</v>
@@ -9902,7 +9908,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>712910</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>1229</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>593</v>
@@ -9935,7 +9941,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>4000023094</v>
       </c>
@@ -9998,7 +10004,7 @@
       </c>
       <c r="J155" s="4" t="str">
         <f>VLOOKUP(H155,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10031,10 +10037,10 @@
       </c>
       <c r="J156" s="4" t="str">
         <f>VLOOKUP(H156,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>461949</v>
       </c>
@@ -10057,7 +10063,7 @@
         <v>1096</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>442</v>
@@ -10067,7 +10073,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>762227</v>
       </c>
@@ -10090,7 +10096,7 @@
         <v>1293</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>608</v>
@@ -10100,7 +10106,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>4002031909</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>563033</v>
       </c>
@@ -10166,7 +10172,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>778234</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>1173</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>612</v>
@@ -10199,7 +10205,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>833265</v>
       </c>
@@ -10222,7 +10228,7 @@
         <v>1174</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>624</v>
@@ -10232,7 +10238,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>465816</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>641151</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>471531</v>
       </c>
@@ -10321,7 +10327,7 @@
         <v>1297</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>457</v>
@@ -10331,7 +10337,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>707769</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>401514</v>
       </c>
@@ -10387,7 +10393,7 @@
         <v>1127</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>403</v>
@@ -10397,7 +10403,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>707488</v>
       </c>
@@ -10420,7 +10426,7 @@
         <v>1180</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>585</v>
@@ -10430,7 +10436,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>631140</v>
       </c>
@@ -10453,7 +10459,7 @@
         <v>1139</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>393</v>
@@ -10463,7 +10469,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>366898</v>
       </c>
@@ -10496,7 +10502,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>269100</v>
       </c>
@@ -10519,7 +10525,7 @@
         <v>1183</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>370</v>
@@ -10529,7 +10535,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>597183</v>
       </c>
@@ -10562,7 +10568,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>375111</v>
       </c>
@@ -10585,7 +10591,7 @@
         <v>1139</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>393</v>
@@ -10595,7 +10601,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>4000292798</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>1139</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>393</v>
@@ -10628,7 +10634,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>800248</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>869959</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>306365</v>
       </c>
@@ -10717,7 +10723,7 @@
         <v>1189</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>371</v>
@@ -10727,7 +10733,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>420078</v>
       </c>
@@ -10760,7 +10766,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>360255</v>
       </c>
@@ -10783,7 +10789,7 @@
         <v>1177</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>377</v>
@@ -10793,7 +10799,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>497582</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>1192</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>495</v>
@@ -10826,7 +10832,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>360261</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>1181</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>378</v>
@@ -10859,7 +10865,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>439581</v>
       </c>
@@ -10882,7 +10888,7 @@
         <v>1193</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>375</v>
@@ -10892,7 +10898,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>720570</v>
       </c>
@@ -10915,7 +10921,7 @@
         <v>1194</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>603</v>
@@ -10925,7 +10931,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>598173</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>456190</v>
       </c>
@@ -10981,7 +10987,7 @@
         <v>1181</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>378</v>
@@ -10991,7 +10997,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>368009</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>1181</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>378</v>
@@ -11024,7 +11030,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>715999</v>
       </c>
@@ -11057,7 +11063,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>4000467215</v>
       </c>
@@ -11080,7 +11086,7 @@
         <v>1127</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>666</v>
@@ -11090,7 +11096,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>404090</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>460482</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>360262</v>
       </c>
@@ -11179,7 +11185,7 @@
         <v>1181</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>378</v>
@@ -11189,7 +11195,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>382764</v>
       </c>
@@ -11212,7 +11218,7 @@
         <v>1201</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>397</v>
@@ -11222,7 +11228,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>4000276361</v>
       </c>
@@ -11255,7 +11261,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>620193</v>
       </c>
@@ -11278,7 +11284,7 @@
         <v>1275</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I194" s="4" t="s">
         <v>553</v>
@@ -11288,7 +11294,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>481257</v>
       </c>
@@ -11321,7 +11327,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>493007</v>
       </c>
@@ -11344,7 +11350,7 @@
         <v>1152</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I196" s="4" t="s">
         <v>492</v>
@@ -11354,7 +11360,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>630926</v>
       </c>
@@ -11377,7 +11383,7 @@
         <v>1205</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>558</v>
@@ -11387,7 +11393,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>471203</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>1206</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>456</v>
@@ -11420,7 +11426,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>410605</v>
       </c>
@@ -11453,7 +11459,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>937354</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>1208</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>598</v>
@@ -11486,7 +11492,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>685744</v>
       </c>
@@ -11509,7 +11515,7 @@
         <v>1209</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>578</v>
@@ -11519,7 +11525,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>517920</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>459758</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>493006</v>
       </c>
@@ -11608,7 +11614,7 @@
         <v>1156</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>491</v>
@@ -11618,7 +11624,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>695961</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>1156</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>491</v>
@@ -11651,7 +11657,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>488349</v>
       </c>
@@ -11674,7 +11680,7 @@
         <v>1215</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>481</v>
@@ -11684,7 +11690,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>29808</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>1212</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>363</v>
@@ -11717,7 +11723,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>511080</v>
       </c>
@@ -11740,7 +11746,7 @@
         <v>1215</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>481</v>
@@ -11750,7 +11756,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>518120</v>
       </c>
@@ -11773,7 +11779,7 @@
         <v>1214</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>516</v>
@@ -11783,7 +11789,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>4000555817</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>1076</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>460</v>
@@ -11816,7 +11822,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>719206</v>
       </c>
@@ -11839,7 +11845,7 @@
         <v>1208</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>598</v>
@@ -11849,7 +11855,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>4000834540</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>1076</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>683</v>
@@ -11882,7 +11888,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>507611</v>
       </c>
@@ -11905,7 +11911,7 @@
         <v>1076</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>460</v>
@@ -11915,7 +11921,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>491951</v>
       </c>
@@ -11938,7 +11944,7 @@
         <v>1076</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>460</v>
@@ -11948,7 +11954,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>377223</v>
       </c>
@@ -11981,7 +11987,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>478548</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>1076</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I216" s="4" t="s">
         <v>460</v>
@@ -12014,7 +12020,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>597513</v>
       </c>
@@ -12037,7 +12043,7 @@
         <v>1076</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>460</v>
@@ -12047,7 +12053,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>478605</v>
       </c>
@@ -12080,7 +12086,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>790683</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>1216</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>617</v>
@@ -12113,7 +12119,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>719218</v>
       </c>
@@ -12146,7 +12152,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>677395</v>
       </c>
@@ -12179,7 +12185,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>507612</v>
       </c>
@@ -12202,7 +12208,7 @@
         <v>1076</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>460</v>
@@ -12212,7 +12218,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>4002035978</v>
       </c>
@@ -12235,7 +12241,7 @@
         <v>1185</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>692</v>
@@ -12245,7 +12251,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>397227</v>
       </c>
@@ -12268,7 +12274,7 @@
         <v>1219</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>401</v>
@@ -12278,7 +12284,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>520750</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>4002312813</v>
       </c>
@@ -12334,7 +12340,7 @@
         <v>1076</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>693</v>
@@ -12344,7 +12350,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>564510</v>
       </c>
@@ -12367,7 +12373,7 @@
         <v>1160</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>537</v>
@@ -12377,7 +12383,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>428824</v>
       </c>
@@ -12410,7 +12416,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>473232</v>
       </c>
@@ -12443,7 +12449,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>518100</v>
       </c>
@@ -12466,7 +12472,7 @@
         <v>1173</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>514</v>
@@ -12476,7 +12482,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>4000362989</v>
       </c>
@@ -12499,7 +12505,7 @@
         <v>1076</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>460</v>
@@ -12509,7 +12515,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>685286</v>
       </c>
@@ -12532,7 +12538,7 @@
         <v>1223</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I232" s="4" t="s">
         <v>576</v>
@@ -12542,7 +12548,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>4000607061</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>471683</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>1076</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I234" s="4" t="s">
         <v>460</v>
@@ -12608,7 +12614,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>466494</v>
       </c>
@@ -12641,7 +12647,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>480804</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>1226</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I236" s="4" t="s">
         <v>467</v>
@@ -12674,7 +12680,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>539695</v>
       </c>
@@ -12697,7 +12703,7 @@
         <v>1076</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I237" s="4" t="s">
         <v>460</v>
@@ -12737,10 +12743,10 @@
       </c>
       <c r="J238" s="4" t="str">
         <f>VLOOKUP(H238,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>682690</v>
       </c>
@@ -12763,7 +12769,7 @@
         <v>1090</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I239" s="4" t="s">
         <v>575</v>
@@ -12773,7 +12779,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>487831</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>1150</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I240" s="4" t="s">
         <v>399</v>
@@ -12806,7 +12812,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>723749</v>
       </c>
@@ -12829,7 +12835,7 @@
         <v>1076</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I241" s="4" t="s">
         <v>460</v>
@@ -12839,7 +12845,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>604166</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>4000633807</v>
       </c>
@@ -12905,7 +12911,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>494808</v>
       </c>
@@ -12938,7 +12944,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>763595</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>542598</v>
       </c>
@@ -12994,7 +13000,7 @@
         <v>1076</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I246" s="4" t="s">
         <v>460</v>
@@ -13004,7 +13010,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>617299</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>1233</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>552</v>
@@ -13037,7 +13043,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>190107</v>
       </c>
@@ -13060,7 +13066,7 @@
         <v>1234</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I248" s="4" t="s">
         <v>368</v>
@@ -13070,7 +13076,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>881059</v>
       </c>
@@ -13103,7 +13109,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>80463</v>
       </c>
@@ -13126,7 +13132,7 @@
         <v>1236</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>366</v>
@@ -13136,7 +13142,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>796221</v>
       </c>
@@ -13159,7 +13165,7 @@
         <v>1076</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>460</v>
@@ -13169,7 +13175,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>405035</v>
       </c>
@@ -13192,7 +13198,7 @@
         <v>1237</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I252" s="4" t="s">
         <v>410</v>
@@ -13202,7 +13208,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>459522</v>
       </c>
@@ -13225,7 +13231,7 @@
         <v>1145</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>438</v>
@@ -13235,7 +13241,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>373239</v>
       </c>
@@ -13268,7 +13274,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>366899</v>
       </c>
@@ -13301,7 +13307,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>481256</v>
       </c>
@@ -13334,7 +13340,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>710444</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>471647</v>
       </c>
@@ -13400,7 +13406,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>685287</v>
       </c>
@@ -13423,7 +13429,7 @@
         <v>1242</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I259" s="4" t="s">
         <v>577</v>
@@ -13433,7 +13439,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>520239</v>
       </c>
@@ -13466,7 +13472,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>898073</v>
       </c>
@@ -13489,7 +13495,7 @@
         <v>1243</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I261" s="4" t="s">
         <v>628</v>
@@ -13499,7 +13505,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>720768</v>
       </c>
@@ -13532,7 +13538,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>629540</v>
       </c>
@@ -13565,7 +13571,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>366917</v>
       </c>
@@ -13588,7 +13594,7 @@
         <v>1170</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I264" s="4" t="s">
         <v>384</v>
@@ -13598,7 +13604,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>4000203757</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>543311</v>
       </c>
@@ -13664,7 +13670,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>656330</v>
       </c>
@@ -13687,7 +13693,7 @@
         <v>1170</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>567</v>
@@ -13697,7 +13703,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>4000518032</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>562851</v>
       </c>
@@ -13763,7 +13769,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>813818</v>
       </c>
@@ -13786,7 +13792,7 @@
         <v>1250</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I270" s="4" t="s">
         <v>621</v>
@@ -13796,7 +13802,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>677342</v>
       </c>
@@ -13859,10 +13865,10 @@
       </c>
       <c r="J272" s="4" t="str">
         <f>VLOOKUP(H272,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>459521</v>
       </c>
@@ -13885,7 +13891,7 @@
         <v>1303</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I273" s="4" t="s">
         <v>437</v>
@@ -13895,7 +13901,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>708148</v>
       </c>
@@ -13928,7 +13934,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>591970</v>
       </c>
@@ -13961,7 +13967,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>420892</v>
       </c>
@@ -13994,7 +14000,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>517917</v>
       </c>
@@ -14017,7 +14023,7 @@
         <v>1255</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I277" s="4" t="s">
         <v>511</v>
@@ -14027,7 +14033,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>552192</v>
       </c>
@@ -14050,7 +14056,7 @@
         <v>1255</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I278" s="4" t="s">
         <v>511</v>
@@ -14060,7 +14066,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>1107189</v>
       </c>
@@ -14093,7 +14099,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>478610</v>
       </c>
@@ -14126,7 +14132,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>653389</v>
       </c>
@@ -14159,7 +14165,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>504910</v>
       </c>
@@ -14182,7 +14188,7 @@
         <v>1156</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>503</v>
@@ -14192,7 +14198,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>366903</v>
       </c>
@@ -14225,7 +14231,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>504635</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>1227</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I284" s="4" t="s">
         <v>502</v>
@@ -14258,7 +14264,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>4000288102</v>
       </c>
@@ -14291,7 +14297,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>404718</v>
       </c>
@@ -14324,7 +14330,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>4000191807</v>
       </c>
@@ -14347,7 +14353,7 @@
         <v>1286</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I287" s="4" t="s">
         <v>653</v>
@@ -14357,7 +14363,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>516191</v>
       </c>
@@ -14380,7 +14386,7 @@
         <v>1261</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I288" s="4" t="s">
         <v>510</v>
@@ -14390,7 +14396,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>647538</v>
       </c>
@@ -14413,7 +14419,7 @@
         <v>1063</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I289" s="4" t="s">
         <v>563</v>
@@ -14453,10 +14459,10 @@
       </c>
       <c r="J290" s="4" t="str">
         <f>VLOOKUP(H290,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>592024</v>
       </c>
@@ -14489,7 +14495,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>379407</v>
       </c>
@@ -14512,7 +14518,7 @@
         <v>1116</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I292" s="4" t="s">
         <v>395</v>
@@ -14522,7 +14528,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>375107</v>
       </c>
@@ -14545,7 +14551,7 @@
         <v>1264</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I293" s="4" t="s">
         <v>392</v>
@@ -14555,7 +14561,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>547381</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>1066</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I294" s="4" t="s">
         <v>530</v>
@@ -14588,7 +14594,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>378030</v>
       </c>
@@ -14611,7 +14617,7 @@
         <v>1116</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I295" s="4" t="s">
         <v>395</v>
@@ -14621,7 +14627,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>359260</v>
       </c>
@@ -14644,7 +14650,7 @@
         <v>1153</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I296" s="4" t="s">
         <v>374</v>
@@ -14654,7 +14660,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>491864</v>
       </c>
@@ -14677,7 +14683,7 @@
         <v>1266</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I297" s="4" t="s">
         <v>364</v>
@@ -14687,7 +14693,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>719222</v>
       </c>
@@ -14720,7 +14726,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>790020</v>
       </c>
@@ -14743,7 +14749,7 @@
         <v>1123</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I299" s="4" t="s">
         <v>616</v>
@@ -14753,7 +14759,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>4000261059</v>
       </c>
@@ -14786,7 +14792,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>598728</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>599062</v>
       </c>
@@ -14852,7 +14858,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>535510</v>
       </c>
@@ -14875,7 +14881,7 @@
         <v>1234</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I303" s="4" t="s">
         <v>523</v>
@@ -14885,7 +14891,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>647761</v>
       </c>
@@ -14908,7 +14914,7 @@
         <v>1158</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I304" s="4" t="s">
         <v>564</v>
@@ -14918,7 +14924,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>974901</v>
       </c>
@@ -14951,7 +14957,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>659123</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>467968</v>
       </c>
@@ -15007,7 +15013,7 @@
         <v>1248</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>454</v>
@@ -15017,7 +15023,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>4001151884</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>1276</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>691</v>
@@ -15050,7 +15056,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>4000459779</v>
       </c>
@@ -15083,7 +15089,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>511064</v>
       </c>
@@ -15116,7 +15122,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>492192</v>
       </c>
@@ -15149,7 +15155,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>806838</v>
       </c>
@@ -15172,7 +15178,7 @@
         <v>1273</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I312" s="4" t="s">
         <v>620</v>
@@ -15182,7 +15188,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>464084</v>
       </c>
@@ -15205,7 +15211,7 @@
         <v>1277</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I313" s="4" t="s">
         <v>445</v>
@@ -15215,7 +15221,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>368842</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>1158</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I314" s="4" t="s">
         <v>386</v>
@@ -15248,7 +15254,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>4000388553</v>
       </c>
@@ -15271,7 +15277,7 @@
         <v>664</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>665</v>
@@ -15281,7 +15287,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>4000690273</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>1085</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I316" s="4" t="s">
         <v>676</v>
@@ -15314,7 +15320,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>763593</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>470519</v>
       </c>
@@ -15380,7 +15386,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>411797</v>
       </c>
@@ -15413,7 +15419,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>4000634278</v>
       </c>
@@ -15436,7 +15442,7 @@
         <v>1096</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I320" s="4" t="s">
         <v>674</v>
@@ -15469,17 +15475,17 @@
         <v>1107</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I321" s="4" t="s">
         <v>517</v>
       </c>
       <c r="J321" s="4" t="str">
         <f>VLOOKUP(H321,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>702524</v>
       </c>
@@ -15535,17 +15541,17 @@
         <v>1120</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I323" s="4" t="s">
         <v>414</v>
       </c>
       <c r="J323" s="4" t="str">
         <f>VLOOKUP(H323,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>443367</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>778849</v>
       </c>
@@ -15601,7 +15607,7 @@
         <v>1200</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I325" s="4" t="s">
         <v>613</v>
@@ -15611,7 +15617,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>465802</v>
       </c>
@@ -15674,10 +15680,10 @@
       </c>
       <c r="J327" s="4" t="str">
         <f>VLOOKUP(H327,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>546261</v>
       </c>
@@ -15700,7 +15706,7 @@
         <v>1283</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I328" s="4" t="s">
         <v>528</v>
@@ -15710,7 +15716,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>481258</v>
       </c>
@@ -15743,7 +15749,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>956038</v>
       </c>
@@ -15776,7 +15782,7 @@
         <v>Baixada</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>623194</v>
       </c>
@@ -15809,7 +15815,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>655434</v>
       </c>
@@ -15842,7 +15848,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>491200</v>
       </c>
@@ -15898,17 +15904,17 @@
         <v>1142</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I334" s="4" t="s">
         <v>398</v>
       </c>
       <c r="J334" s="4" t="str">
         <f>VLOOKUP(H334,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>379635</v>
       </c>
@@ -15931,7 +15937,7 @@
         <v>1283</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I335" s="4" t="s">
         <v>396</v>
@@ -15941,7 +15947,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>655437</v>
       </c>
@@ -15974,7 +15980,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>592076</v>
       </c>
@@ -15997,7 +16003,7 @@
         <v>1288</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I337" s="4" t="s">
         <v>540</v>
@@ -16007,7 +16013,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>415799</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>637982</v>
       </c>
@@ -16073,7 +16079,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>898094</v>
       </c>
@@ -16106,7 +16112,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>4000798513</v>
       </c>
@@ -16139,7 +16145,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>390919</v>
       </c>
@@ -16162,7 +16168,7 @@
         <v>1291</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I342" s="4" t="s">
         <v>400</v>
@@ -16172,7 +16178,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>4001688330</v>
       </c>
@@ -16228,17 +16234,17 @@
         <v>1142</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I344" s="4" t="s">
         <v>398</v>
       </c>
       <c r="J344" s="4" t="str">
         <f>VLOOKUP(H344,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>644587</v>
       </c>
@@ -16261,7 +16267,7 @@
         <v>1117</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I345" s="4" t="s">
         <v>472</v>
@@ -16294,14 +16300,14 @@
         <v>1186</v>
       </c>
       <c r="H346" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I346" s="4" t="s">
         <v>486</v>
       </c>
       <c r="J346" s="4" t="str">
         <f>VLOOKUP(H346,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16327,14 +16333,14 @@
         <v>1203</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I347" s="4" t="s">
         <v>524</v>
       </c>
       <c r="J347" s="4" t="str">
         <f>VLOOKUP(H347,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16367,10 +16373,10 @@
       </c>
       <c r="J348" s="4" t="str">
         <f>VLOOKUP(H348,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>371604</v>
       </c>
@@ -16393,7 +16399,7 @@
         <v>1295</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I349" s="4" t="s">
         <v>388</v>
@@ -16403,7 +16409,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>466678</v>
       </c>
@@ -16459,14 +16465,14 @@
         <v>1218</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I351" s="4" t="s">
         <v>675</v>
       </c>
       <c r="J351" s="4" t="str">
         <f>VLOOKUP(H351,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16492,14 +16498,14 @@
         <v>1267</v>
       </c>
       <c r="H352" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I352" s="4" t="s">
         <v>518</v>
       </c>
       <c r="J352" s="4" t="str">
         <f>VLOOKUP(H352,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16525,14 +16531,14 @@
         <v>1270</v>
       </c>
       <c r="H353" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I353" s="4" t="s">
         <v>618</v>
       </c>
       <c r="J353" s="4" t="str">
         <f>VLOOKUP(H353,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16558,14 +16564,14 @@
         <v>1280</v>
       </c>
       <c r="H354" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I354" s="4" t="s">
         <v>515</v>
       </c>
       <c r="J354" s="4" t="str">
         <f>VLOOKUP(H354,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16591,17 +16597,17 @@
         <v>1294</v>
       </c>
       <c r="H355" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I355" s="4" t="s">
         <v>572</v>
       </c>
       <c r="J355" s="4" t="str">
         <f>VLOOKUP(H355,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>422202</v>
       </c>
@@ -16634,7 +16640,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>4000033643</v>
       </c>
@@ -16690,14 +16696,14 @@
         <v>1243</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>586</v>
       </c>
       <c r="J358" s="4" t="str">
         <f>VLOOKUP(H358,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16730,7 +16736,7 @@
       </c>
       <c r="J359" s="4" t="str">
         <f>VLOOKUP(H359,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16763,10 +16769,10 @@
       </c>
       <c r="J360" s="4" t="str">
         <f>VLOOKUP(H360,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>961172</v>
       </c>
@@ -16789,7 +16795,7 @@
         <v>1150</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>643</v>
@@ -16822,17 +16828,17 @@
         <v>1322</v>
       </c>
       <c r="H362" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>595</v>
       </c>
       <c r="J362" s="4" t="str">
         <f>VLOOKUP(H362,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>483101</v>
       </c>
@@ -16855,7 +16861,7 @@
         <v>474</v>
       </c>
       <c r="H363" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I363" s="4" t="s">
         <v>475</v>
@@ -16865,7 +16871,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>488637</v>
       </c>
@@ -16888,7 +16894,7 @@
         <v>1148</v>
       </c>
       <c r="H364" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I364" s="4" t="s">
         <v>482</v>
@@ -16898,7 +16904,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>483102</v>
       </c>
@@ -16921,7 +16927,7 @@
         <v>476</v>
       </c>
       <c r="H365" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I365" s="4" t="s">
         <v>477</v>
@@ -16931,7 +16937,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>654887</v>
       </c>
@@ -16954,7 +16960,7 @@
         <v>1179</v>
       </c>
       <c r="H366" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I366" s="4" t="s">
         <v>547</v>
@@ -16964,7 +16970,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>656604</v>
       </c>
@@ -16997,7 +17003,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>602391</v>
       </c>
@@ -17020,7 +17026,7 @@
         <v>1179</v>
       </c>
       <c r="H368" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I368" s="4" t="s">
         <v>547</v>
@@ -17030,7 +17036,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>605773</v>
       </c>
@@ -17053,7 +17059,7 @@
         <v>1211</v>
       </c>
       <c r="H369" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I369" s="4" t="s">
         <v>551</v>
@@ -17063,7 +17069,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>500846</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>1304</v>
       </c>
       <c r="H370" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>499</v>
@@ -17096,7 +17102,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>899585</v>
       </c>
@@ -17119,7 +17125,7 @@
         <v>1305</v>
       </c>
       <c r="H371" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>630</v>
@@ -17129,7 +17135,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>404671</v>
       </c>
@@ -17152,7 +17158,7 @@
         <v>1099</v>
       </c>
       <c r="H372" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>406</v>
@@ -17192,10 +17198,10 @@
       </c>
       <c r="J373" s="4" t="str">
         <f>VLOOKUP(H373,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>491146</v>
       </c>
@@ -17228,7 +17234,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>471543</v>
       </c>
@@ -17291,10 +17297,10 @@
       </c>
       <c r="J376" s="4" t="str">
         <f>VLOOKUP(H376,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>559958</v>
       </c>
@@ -17327,7 +17333,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>366915</v>
       </c>
@@ -17360,7 +17366,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>405625</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>908267</v>
       </c>
@@ -17416,7 +17422,7 @@
         <v>1309</v>
       </c>
       <c r="H380" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I380" s="4" t="s">
         <v>631</v>
@@ -17426,7 +17432,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>719227</v>
       </c>
@@ -17459,7 +17465,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>195163</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>1311</v>
       </c>
       <c r="H382" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I382" s="4" t="s">
         <v>369</v>
@@ -17492,7 +17498,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>500386</v>
       </c>
@@ -17515,7 +17521,7 @@
         <v>1312</v>
       </c>
       <c r="H383" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>497</v>
@@ -17525,7 +17531,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>4000304530</v>
       </c>
@@ -17548,7 +17554,7 @@
         <v>1262</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>662</v>
@@ -17558,7 +17564,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>516186</v>
       </c>
@@ -17581,7 +17587,7 @@
         <v>1314</v>
       </c>
       <c r="H385" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>508</v>
@@ -17591,7 +17597,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>958143</v>
       </c>
@@ -17614,7 +17620,7 @@
         <v>1321</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>596</v>
@@ -17624,7 +17630,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>518095</v>
       </c>
@@ -17647,7 +17653,7 @@
         <v>1315</v>
       </c>
       <c r="H387" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I387" s="4" t="s">
         <v>512</v>
@@ -17657,7 +17663,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>713951</v>
       </c>
@@ -17680,7 +17686,7 @@
         <v>1321</v>
       </c>
       <c r="H388" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I388" s="4" t="s">
         <v>596</v>
@@ -17690,7 +17696,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>703119</v>
       </c>
@@ -17746,14 +17752,14 @@
         <v>1100</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>435</v>
       </c>
       <c r="J390" s="4" t="str">
         <f>VLOOKUP(H390,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -17779,17 +17785,17 @@
         <v>1157</v>
       </c>
       <c r="H391" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I391" s="4" t="s">
         <v>533</v>
       </c>
       <c r="J391" s="4" t="str">
         <f>VLOOKUP(H391,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>36570</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>1266</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I392" s="4" t="s">
         <v>364</v>
@@ -17822,7 +17828,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>4000813490</v>
       </c>
@@ -17855,7 +17861,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>834448</v>
       </c>
@@ -17888,7 +17894,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>775834</v>
       </c>
@@ -17921,7 +17927,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>937292</v>
       </c>
@@ -17944,7 +17950,7 @@
         <v>1317</v>
       </c>
       <c r="H396" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I396" s="4" t="s">
         <v>639</v>
@@ -17954,7 +17960,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>475331</v>
       </c>
@@ -17987,7 +17993,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>925740</v>
       </c>
@@ -18010,7 +18016,7 @@
         <v>637</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I398" s="4" t="s">
         <v>638</v>
@@ -18020,7 +18026,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>597510</v>
       </c>
@@ -18053,7 +18059,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>359761</v>
       </c>
@@ -18076,7 +18082,7 @@
         <v>1193</v>
       </c>
       <c r="H400" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I400" s="4" t="s">
         <v>375</v>
@@ -18086,7 +18092,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>702652</v>
       </c>
@@ -18142,14 +18148,14 @@
         <v>1197</v>
       </c>
       <c r="H402" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I402" s="4" t="s">
         <v>426</v>
       </c>
       <c r="J402" s="4" t="str">
         <f>VLOOKUP(H402,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="403" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -18175,17 +18181,17 @@
         <v>1238</v>
       </c>
       <c r="H403" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I403" s="4" t="s">
         <v>527</v>
       </c>
       <c r="J403" s="4" t="str">
         <f>VLOOKUP(H403,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>703529</v>
       </c>
@@ -18241,14 +18247,14 @@
         <v>1066</v>
       </c>
       <c r="H405" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I405" s="4" t="s">
         <v>529</v>
       </c>
       <c r="J405" s="4" t="str">
         <f>VLOOKUP(H405,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
+        <v>Vale</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -18274,17 +18280,17 @@
         <v>1238</v>
       </c>
       <c r="H406" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I406" s="4" t="s">
         <v>527</v>
       </c>
       <c r="J406" s="4" t="str">
         <f>VLOOKUP(H406,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>371994</v>
       </c>
@@ -18307,7 +18313,7 @@
         <v>1295</v>
       </c>
       <c r="H407" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I407" s="4" t="s">
         <v>389</v>
@@ -18317,7 +18323,7 @@
         <v>RMSP</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>911363</v>
       </c>
@@ -18350,7 +18356,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>636460</v>
       </c>
@@ -18406,17 +18412,17 @@
         <v>1292</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I410" s="4" t="s">
         <v>432</v>
       </c>
       <c r="J410" s="4" t="str">
         <f>VLOOKUP(H410,'Municípios x Região'!A:B,2,FALSE)</f>
-        <v>Vale do Paraíba</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Vale</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>507248</v>
       </c>
@@ -18439,7 +18445,7 @@
         <v>1101</v>
       </c>
       <c r="H411" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I411" s="4" t="s">
         <v>504</v>
@@ -18449,7 +18455,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>552677</v>
       </c>
@@ -18472,7 +18478,7 @@
         <v>1199</v>
       </c>
       <c r="H412" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I412" s="4" t="s">
         <v>531</v>
@@ -18482,7 +18488,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>504631</v>
       </c>
@@ -18505,7 +18511,7 @@
         <v>1232</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I413" s="4" t="s">
         <v>501</v>
@@ -18515,7 +18521,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>911183</v>
       </c>
@@ -18548,7 +18554,7 @@
         <v>Interior</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>982809</v>
       </c>
@@ -18583,6 +18589,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J415" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Vale do Paraíba"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J413">
       <sortCondition ref="H1:H415"/>
     </sortState>
@@ -18603,14 +18614,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB43B39-8350-4A80-8006-4CDECBFCFA7D}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18622,758 +18633,759 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B27" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="B28" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="B29" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B30" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B31" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="B32" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B33" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B34" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B36" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B37" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B38" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B40" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B41" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B42" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="B44" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B45" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="B46" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B47" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="B48" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B49" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B50" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B51" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B52" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B53" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="B54" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B55" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B56" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B57" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B58" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B59" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B60" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B61" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B62" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B63" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B64" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B65" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B66" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B67" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B68" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B69" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B70" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B71" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B72" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B73" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="B74" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="B75" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B76" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="B77" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B78" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B79" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="B80" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B81" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B82" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="B83" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="B84" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B88" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="B89" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B90" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B91" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="B92" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B93" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B94" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1391</v>
+      <c r="B95" s="1" t="s">
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B95" xr:uid="{AFB43B39-8350-4A80-8006-4CDECBFCFA7D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Interno&amp;1#_x000D_</oddHeader>
@@ -19610,20 +19622,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c5c7f86b-4791-4c6e-bbdd-be58f1119376" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c5c7f86b-4791-4c6e-bbdd-be58f1119376" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19646,14 +19658,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8365366F-C923-41E1-BCEF-D20716FB5191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1EEEF2-ACFB-4242-B146-AEA07C055CD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="f3b2f79d-6791-4837-b542-5f51f475a811"/>
@@ -19668,4 +19672,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8365366F-C923-41E1-BCEF-D20716FB5191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>